--- a/Doc/Prac1.xlsx
+++ b/Doc/Prac1.xlsx
@@ -11,19 +11,20 @@
     <sheet state="visible" name="lsqruu x2" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="latencia 6-&gt;4" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="lsq x2 lat 6-&gt;5" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Decode 8 lsq x2" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mh+nf5N0DIl52hvCCKDcEzYxW4ycA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7miNfkq1rwp2lZgyrtX7AQl4DC2GPQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="21">
   <si>
     <t>INTEL</t>
   </si>
@@ -53,6 +54,12 @@
   </si>
   <si>
     <t>ammp</t>
+  </si>
+  <si>
+    <t>240/109452842</t>
+  </si>
+  <si>
+    <t>240/240</t>
   </si>
   <si>
     <t>eon</t>
@@ -221,6 +228,9 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -228,9 +238,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -453,11 +460,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1687118744"/>
-        <c:axId val="299482441"/>
+        <c:axId val="1143395773"/>
+        <c:axId val="851289667"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1687118744"/>
+        <c:axId val="1143395773"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,10 +516,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299482441"/>
+        <c:crossAx val="851289667"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="299482441"/>
+        <c:axId val="851289667"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,7 +583,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1687118744"/>
+        <c:crossAx val="1143395773"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -665,11 +672,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1761359418"/>
-        <c:axId val="1220516533"/>
+        <c:axId val="1993174085"/>
+        <c:axId val="238032108"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1761359418"/>
+        <c:axId val="1993174085"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,10 +728,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1220516533"/>
+        <c:crossAx val="238032108"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1220516533"/>
+        <c:axId val="238032108"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +795,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1761359418"/>
+        <c:crossAx val="1993174085"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -915,11 +922,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1463879677"/>
-        <c:axId val="1891070972"/>
+        <c:axId val="1322838155"/>
+        <c:axId val="813220984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1463879677"/>
+        <c:axId val="1322838155"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,10 +978,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1891070972"/>
+        <c:crossAx val="813220984"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1891070972"/>
+        <c:axId val="813220984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1045,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1463879677"/>
+        <c:crossAx val="1322838155"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1183,11 +1190,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="437064517"/>
-        <c:axId val="1799205122"/>
+        <c:axId val="1121440500"/>
+        <c:axId val="605702066"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="437064517"/>
+        <c:axId val="1121440500"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,10 +1246,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799205122"/>
+        <c:crossAx val="605702066"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799205122"/>
+        <c:axId val="605702066"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1313,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437064517"/>
+        <c:crossAx val="1121440500"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1479,11 +1486,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1230470000"/>
-        <c:axId val="920266761"/>
+        <c:axId val="1167919146"/>
+        <c:axId val="911709135"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1230470000"/>
+        <c:axId val="1167919146"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,10 +1542,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="920266761"/>
+        <c:crossAx val="911709135"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="920266761"/>
+        <c:axId val="911709135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1602,7 +1609,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1230470000"/>
+        <c:crossAx val="1167919146"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1719,11 +1726,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="262160981"/>
-        <c:axId val="245199772"/>
+        <c:axId val="1339941795"/>
+        <c:axId val="623189657"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="262160981"/>
+        <c:axId val="1339941795"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,10 +1782,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245199772"/>
+        <c:crossAx val="623189657"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245199772"/>
+        <c:axId val="623189657"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,7 +1849,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262160981"/>
+        <c:crossAx val="1339941795"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2063,11 +2070,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="915207506"/>
-        <c:axId val="1801137862"/>
+        <c:axId val="1154419255"/>
+        <c:axId val="1312618681"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="915207506"/>
+        <c:axId val="1154419255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,10 +2126,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1801137862"/>
+        <c:crossAx val="1312618681"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1801137862"/>
+        <c:axId val="1312618681"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2186,7 +2193,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="915207506"/>
+        <c:crossAx val="1154419255"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2277,11 +2284,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1908547780"/>
-        <c:axId val="1691590097"/>
+        <c:axId val="2128219196"/>
+        <c:axId val="190809168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1908547780"/>
+        <c:axId val="2128219196"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,10 +2340,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691590097"/>
+        <c:crossAx val="190809168"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691590097"/>
+        <c:axId val="190809168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,7 +2407,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1908547780"/>
+        <c:crossAx val="2128219196"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2471,11 +2478,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="215690123"/>
-        <c:axId val="841861053"/>
+        <c:axId val="1969346637"/>
+        <c:axId val="502689120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215690123"/>
+        <c:axId val="1969346637"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2527,10 +2534,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="841861053"/>
+        <c:crossAx val="502689120"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="841861053"/>
+        <c:axId val="502689120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2601,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215690123"/>
+        <c:crossAx val="1969346637"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2721,11 +2728,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="32015609"/>
-        <c:axId val="823228520"/>
+        <c:axId val="1943265705"/>
+        <c:axId val="2143528215"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="32015609"/>
+        <c:axId val="1943265705"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2777,10 +2784,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="823228520"/>
+        <c:crossAx val="2143528215"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="823228520"/>
+        <c:axId val="2143528215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2844,7 +2851,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32015609"/>
+        <c:crossAx val="1943265705"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2989,11 +2996,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="568958656"/>
-        <c:axId val="1250854128"/>
+        <c:axId val="778566358"/>
+        <c:axId val="1057365309"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="568958656"/>
+        <c:axId val="778566358"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3045,10 +3052,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1250854128"/>
+        <c:crossAx val="1057365309"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1250854128"/>
+        <c:axId val="1057365309"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3112,7 +3119,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568958656"/>
+        <c:crossAx val="778566358"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3203,11 +3210,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1612654619"/>
-        <c:axId val="475275944"/>
+        <c:axId val="1353934895"/>
+        <c:axId val="695646147"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1612654619"/>
+        <c:axId val="1353934895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3259,10 +3266,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475275944"/>
+        <c:crossAx val="695646147"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="475275944"/>
+        <c:axId val="695646147"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3326,7 +3333,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612654619"/>
+        <c:crossAx val="1353934895"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3453,11 +3460,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2078887430"/>
-        <c:axId val="1407336770"/>
+        <c:axId val="874904583"/>
+        <c:axId val="1698697862"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2078887430"/>
+        <c:axId val="874904583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3509,10 +3516,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1407336770"/>
+        <c:crossAx val="1698697862"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1407336770"/>
+        <c:axId val="1698697862"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3587,7 +3594,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2078887430"/>
+        <c:crossAx val="874904583"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3704,11 +3711,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1695356407"/>
-        <c:axId val="737050285"/>
+        <c:axId val="1148146129"/>
+        <c:axId val="1816564371"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1695356407"/>
+        <c:axId val="1148146129"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3760,10 +3767,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737050285"/>
+        <c:crossAx val="1816564371"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="737050285"/>
+        <c:axId val="1816564371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3827,7 +3834,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1695356407"/>
+        <c:crossAx val="1148146129"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4048,11 +4055,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1851525282"/>
-        <c:axId val="220559034"/>
+        <c:axId val="1839062623"/>
+        <c:axId val="1282244395"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1851525282"/>
+        <c:axId val="1839062623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4104,10 +4111,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220559034"/>
+        <c:crossAx val="1282244395"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220559034"/>
+        <c:axId val="1282244395"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4171,7 +4178,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1851525282"/>
+        <c:crossAx val="1839062623"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4262,11 +4269,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="695664565"/>
-        <c:axId val="757179118"/>
+        <c:axId val="1653748878"/>
+        <c:axId val="260031231"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="695664565"/>
+        <c:axId val="1653748878"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4318,10 +4325,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="757179118"/>
+        <c:crossAx val="260031231"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="757179118"/>
+        <c:axId val="260031231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4385,7 +4392,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="695664565"/>
+        <c:crossAx val="1653748878"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4456,11 +4463,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1631442737"/>
-        <c:axId val="1413856987"/>
+        <c:axId val="546130921"/>
+        <c:axId val="736183906"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1631442737"/>
+        <c:axId val="546130921"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4512,10 +4519,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1413856987"/>
+        <c:crossAx val="736183906"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1413856987"/>
+        <c:axId val="736183906"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4579,7 +4586,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1631442737"/>
+        <c:crossAx val="546130921"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4706,11 +4713,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="497630689"/>
-        <c:axId val="988424285"/>
+        <c:axId val="1954743899"/>
+        <c:axId val="918112252"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="497630689"/>
+        <c:axId val="1954743899"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4762,10 +4769,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="988424285"/>
+        <c:crossAx val="918112252"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="988424285"/>
+        <c:axId val="918112252"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4829,7 +4836,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497630689"/>
+        <c:crossAx val="1954743899"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4974,11 +4981,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="777435044"/>
-        <c:axId val="1251409202"/>
+        <c:axId val="1312717214"/>
+        <c:axId val="1374317485"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="777435044"/>
+        <c:axId val="1312717214"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5030,10 +5037,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1251409202"/>
+        <c:crossAx val="1374317485"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1251409202"/>
+        <c:axId val="1374317485"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5097,7 +5104,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="777435044"/>
+        <c:crossAx val="1312717214"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5250,11 +5257,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="6865734"/>
-        <c:axId val="1803441689"/>
+        <c:axId val="1638199340"/>
+        <c:axId val="2067382589"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6865734"/>
+        <c:axId val="1638199340"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5306,10 +5313,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1803441689"/>
+        <c:crossAx val="2067382589"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1803441689"/>
+        <c:axId val="2067382589"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5384,7 +5391,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6865734"/>
+        <c:crossAx val="1638199340"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5605,11 +5612,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="178059764"/>
-        <c:axId val="972942995"/>
+        <c:axId val="1230720775"/>
+        <c:axId val="817141678"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="178059764"/>
+        <c:axId val="1230720775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5661,10 +5668,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="972942995"/>
+        <c:crossAx val="817141678"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="972942995"/>
+        <c:axId val="817141678"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5728,7 +5735,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178059764"/>
+        <c:crossAx val="1230720775"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5819,11 +5826,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1895378191"/>
-        <c:axId val="479849658"/>
+        <c:axId val="305039502"/>
+        <c:axId val="1098780514"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1895378191"/>
+        <c:axId val="305039502"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5875,10 +5882,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479849658"/>
+        <c:crossAx val="1098780514"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="479849658"/>
+        <c:axId val="1098780514"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5942,7 +5949,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1895378191"/>
+        <c:crossAx val="305039502"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -6013,11 +6020,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1264722742"/>
-        <c:axId val="538554375"/>
+        <c:axId val="1645778029"/>
+        <c:axId val="1017056831"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1264722742"/>
+        <c:axId val="1645778029"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6069,10 +6076,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538554375"/>
+        <c:crossAx val="1017056831"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="538554375"/>
+        <c:axId val="1017056831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6136,7 +6143,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1264722742"/>
+        <c:crossAx val="1645778029"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -6207,11 +6214,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1708165338"/>
-        <c:axId val="52428957"/>
+        <c:axId val="1188826509"/>
+        <c:axId val="750661100"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1708165338"/>
+        <c:axId val="1188826509"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6263,10 +6270,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52428957"/>
+        <c:crossAx val="750661100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52428957"/>
+        <c:axId val="750661100"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6330,7 +6337,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1708165338"/>
+        <c:crossAx val="1188826509"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -6457,11 +6464,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="765902005"/>
-        <c:axId val="909226510"/>
+        <c:axId val="260490072"/>
+        <c:axId val="1064191921"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="765902005"/>
+        <c:axId val="260490072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6513,10 +6520,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="909226510"/>
+        <c:crossAx val="1064191921"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="909226510"/>
+        <c:axId val="1064191921"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6580,7 +6587,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765902005"/>
+        <c:crossAx val="260490072"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6725,11 +6732,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="874124866"/>
-        <c:axId val="1522491369"/>
+        <c:axId val="1047699474"/>
+        <c:axId val="1813516311"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="874124866"/>
+        <c:axId val="1047699474"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6781,10 +6788,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1522491369"/>
+        <c:crossAx val="1813516311"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1522491369"/>
+        <c:axId val="1813516311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6848,7 +6855,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="874124866"/>
+        <c:crossAx val="1047699474"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6993,11 +7000,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="857182970"/>
-        <c:axId val="157490533"/>
+        <c:axId val="729393209"/>
+        <c:axId val="326338606"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="857182970"/>
+        <c:axId val="729393209"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7049,10 +7056,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157490533"/>
+        <c:crossAx val="326338606"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157490533"/>
+        <c:axId val="326338606"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7127,7 +7134,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="857182970"/>
+        <c:crossAx val="729393209"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7216,11 +7223,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2078818638"/>
-        <c:axId val="752435665"/>
+        <c:axId val="11634883"/>
+        <c:axId val="792069444"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2078818638"/>
+        <c:axId val="11634883"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7272,10 +7279,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752435665"/>
+        <c:crossAx val="792069444"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="752435665"/>
+        <c:axId val="792069444"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7350,7 +7357,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2078818638"/>
+        <c:crossAx val="11634883"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7571,11 +7578,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="73067575"/>
-        <c:axId val="1892404724"/>
+        <c:axId val="1556186272"/>
+        <c:axId val="1590974987"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73067575"/>
+        <c:axId val="1556186272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7627,10 +7634,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1892404724"/>
+        <c:crossAx val="1590974987"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1892404724"/>
+        <c:axId val="1590974987"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7694,7 +7701,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73067575"/>
+        <c:crossAx val="1556186272"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7785,11 +7792,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1814136087"/>
-        <c:axId val="1561273703"/>
+        <c:axId val="866313037"/>
+        <c:axId val="1557285940"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1814136087"/>
+        <c:axId val="866313037"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7841,10 +7848,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1561273703"/>
+        <c:crossAx val="1557285940"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1561273703"/>
+        <c:axId val="1557285940"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7908,7 +7915,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814136087"/>
+        <c:crossAx val="866313037"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -7979,11 +7986,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="494668013"/>
-        <c:axId val="90786249"/>
+        <c:axId val="1664064938"/>
+        <c:axId val="1228804704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="494668013"/>
+        <c:axId val="1664064938"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8035,10 +8042,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90786249"/>
+        <c:crossAx val="1228804704"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90786249"/>
+        <c:axId val="1228804704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8102,7 +8109,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494668013"/>
+        <c:crossAx val="1664064938"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -8229,11 +8236,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84671048"/>
-        <c:axId val="942698217"/>
+        <c:axId val="1867876982"/>
+        <c:axId val="1709689166"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84671048"/>
+        <c:axId val="1867876982"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8285,10 +8292,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="942698217"/>
+        <c:crossAx val="1709689166"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="942698217"/>
+        <c:axId val="1709689166"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8352,7 +8359,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84671048"/>
+        <c:crossAx val="1867876982"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -8497,11 +8504,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2114875368"/>
-        <c:axId val="1612685078"/>
+        <c:axId val="1241834906"/>
+        <c:axId val="2012697362"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2114875368"/>
+        <c:axId val="1241834906"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8553,10 +8560,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612685078"/>
+        <c:crossAx val="2012697362"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1612685078"/>
+        <c:axId val="2012697362"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8620,7 +8627,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2114875368"/>
+        <c:crossAx val="1241834906"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -8765,11 +8772,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="563628045"/>
-        <c:axId val="1784376668"/>
+        <c:axId val="857323402"/>
+        <c:axId val="1620406463"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="563628045"/>
+        <c:axId val="857323402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8821,10 +8828,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784376668"/>
+        <c:crossAx val="1620406463"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1784376668"/>
+        <c:axId val="1620406463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8888,7 +8895,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563628045"/>
+        <c:crossAx val="857323402"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -9033,11 +9040,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="744276311"/>
-        <c:axId val="359778065"/>
+        <c:axId val="31026562"/>
+        <c:axId val="1749144042"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="744276311"/>
+        <c:axId val="31026562"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9089,10 +9096,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359778065"/>
+        <c:crossAx val="1749144042"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359778065"/>
+        <c:axId val="1749144042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9167,7 +9174,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="744276311"/>
+        <c:crossAx val="31026562"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -9256,11 +9263,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1412801597"/>
-        <c:axId val="508531363"/>
+        <c:axId val="2131840578"/>
+        <c:axId val="2079094189"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1412801597"/>
+        <c:axId val="2131840578"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9312,10 +9319,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508531363"/>
+        <c:crossAx val="2079094189"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="508531363"/>
+        <c:axId val="2079094189"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9390,7 +9397,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1412801597"/>
+        <c:crossAx val="2131840578"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -9611,11 +9618,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="495537845"/>
-        <c:axId val="927569425"/>
+        <c:axId val="1197544905"/>
+        <c:axId val="27974767"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="495537845"/>
+        <c:axId val="1197544905"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9667,10 +9674,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="927569425"/>
+        <c:crossAx val="27974767"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="927569425"/>
+        <c:axId val="27974767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9734,7 +9741,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495537845"/>
+        <c:crossAx val="1197544905"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -9825,11 +9832,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1040755338"/>
-        <c:axId val="1612578795"/>
+        <c:axId val="2003387552"/>
+        <c:axId val="650943954"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1040755338"/>
+        <c:axId val="2003387552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9881,10 +9888,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612578795"/>
+        <c:crossAx val="650943954"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1612578795"/>
+        <c:axId val="650943954"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9948,7 +9955,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1040755338"/>
+        <c:crossAx val="2003387552"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -10019,11 +10026,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1702145836"/>
-        <c:axId val="928771644"/>
+        <c:axId val="603872311"/>
+        <c:axId val="1491217727"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1702145836"/>
+        <c:axId val="603872311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10075,10 +10082,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="928771644"/>
+        <c:crossAx val="1491217727"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="928771644"/>
+        <c:axId val="1491217727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10142,7 +10149,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1702145836"/>
+        <c:crossAx val="603872311"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -10269,11 +10276,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1447322305"/>
-        <c:axId val="1836696374"/>
+        <c:axId val="60603078"/>
+        <c:axId val="332653757"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1447322305"/>
+        <c:axId val="60603078"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10325,10 +10332,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1836696374"/>
+        <c:crossAx val="332653757"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1836696374"/>
+        <c:axId val="332653757"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10392,7 +10399,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1447322305"/>
+        <c:crossAx val="60603078"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -10537,11 +10544,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2083641389"/>
-        <c:axId val="241841339"/>
+        <c:axId val="1523560786"/>
+        <c:axId val="153889460"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2083641389"/>
+        <c:axId val="1523560786"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10593,10 +10600,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241841339"/>
+        <c:crossAx val="153889460"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241841339"/>
+        <c:axId val="153889460"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10660,7 +10667,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083641389"/>
+        <c:crossAx val="1523560786"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -10749,11 +10756,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="735207852"/>
-        <c:axId val="1821079293"/>
+        <c:axId val="463498853"/>
+        <c:axId val="1046787682"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="735207852"/>
+        <c:axId val="463498853"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10805,10 +10812,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1821079293"/>
+        <c:crossAx val="1046787682"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1821079293"/>
+        <c:axId val="1046787682"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10883,7 +10890,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735207852"/>
+        <c:crossAx val="463498853"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -11028,11 +11035,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="820591017"/>
-        <c:axId val="1231020723"/>
+        <c:axId val="1573370441"/>
+        <c:axId val="545648885"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="820591017"/>
+        <c:axId val="1573370441"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11084,10 +11091,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1231020723"/>
+        <c:crossAx val="545648885"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1231020723"/>
+        <c:axId val="545648885"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11162,7 +11169,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="820591017"/>
+        <c:crossAx val="1573370441"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -11383,11 +11390,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1893452463"/>
-        <c:axId val="504435291"/>
+        <c:axId val="379628908"/>
+        <c:axId val="1410130148"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1893452463"/>
+        <c:axId val="379628908"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11439,10 +11446,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504435291"/>
+        <c:crossAx val="1410130148"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="504435291"/>
+        <c:axId val="1410130148"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11506,7 +11513,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1893452463"/>
+        <c:crossAx val="379628908"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -11651,11 +11658,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1635600295"/>
-        <c:axId val="1683704003"/>
+        <c:axId val="1503887552"/>
+        <c:axId val="326173615"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1635600295"/>
+        <c:axId val="1503887552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11707,10 +11714,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1683704003"/>
+        <c:crossAx val="326173615"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1683704003"/>
+        <c:axId val="326173615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11774,7 +11781,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1635600295"/>
+        <c:crossAx val="1503887552"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -11865,11 +11872,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1097145107"/>
-        <c:axId val="1180855565"/>
+        <c:axId val="1525426642"/>
+        <c:axId val="1108224377"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1097145107"/>
+        <c:axId val="1525426642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11921,10 +11928,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1180855565"/>
+        <c:crossAx val="1108224377"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1180855565"/>
+        <c:axId val="1108224377"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11988,7 +11995,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1097145107"/>
+        <c:crossAx val="1525426642"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -12059,11 +12066,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="420536910"/>
-        <c:axId val="61508777"/>
+        <c:axId val="784709060"/>
+        <c:axId val="623824691"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="420536910"/>
+        <c:axId val="784709060"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12115,10 +12122,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61508777"/>
+        <c:crossAx val="623824691"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61508777"/>
+        <c:axId val="623824691"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12182,7 +12189,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420536910"/>
+        <c:crossAx val="784709060"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -12309,11 +12316,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="334222596"/>
-        <c:axId val="437260924"/>
+        <c:axId val="360442134"/>
+        <c:axId val="349837687"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="334222596"/>
+        <c:axId val="360442134"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12365,10 +12372,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437260924"/>
+        <c:crossAx val="349837687"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="437260924"/>
+        <c:axId val="349837687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12432,7 +12439,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334222596"/>
+        <c:crossAx val="360442134"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -12577,11 +12584,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1311554359"/>
-        <c:axId val="685023151"/>
+        <c:axId val="873413388"/>
+        <c:axId val="2129494039"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1311554359"/>
+        <c:axId val="873413388"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12633,10 +12640,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685023151"/>
+        <c:crossAx val="2129494039"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="685023151"/>
+        <c:axId val="2129494039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12700,7 +12707,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1311554359"/>
+        <c:crossAx val="873413388"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -12789,11 +12796,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="999497254"/>
-        <c:axId val="1093757295"/>
+        <c:axId val="341843098"/>
+        <c:axId val="1870450738"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="999497254"/>
+        <c:axId val="341843098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12845,10 +12852,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1093757295"/>
+        <c:crossAx val="1870450738"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1093757295"/>
+        <c:axId val="1870450738"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12923,7 +12930,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="999497254"/>
+        <c:crossAx val="341843098"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -13068,11 +13075,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1820040500"/>
-        <c:axId val="1890817328"/>
+        <c:axId val="722809383"/>
+        <c:axId val="109456495"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1820040500"/>
+        <c:axId val="722809383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13124,10 +13131,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1890817328"/>
+        <c:crossAx val="109456495"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1890817328"/>
+        <c:axId val="109456495"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13202,7 +13209,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1820040500"/>
+        <c:crossAx val="722809383"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -13214,6 +13221,1008 @@
         <a:p>
           <a:pPr lvl="0">
             <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" i="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Miss rates Intel-AMD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ammp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Decode 8 lsq x2'!$K$2:$P$2</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$K$3:$P$3</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>eon</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Decode 8 lsq x2'!$K$2:$P$2</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$K$4:$P$4</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>equake</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Decode 8 lsq x2'!$K$2:$P$2</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$K$6:$P$6</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>gap</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Decode 8 lsq x2'!$K$2:$P$2</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$K$8:$P$8</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>mesa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Decode 8 lsq x2'!$K$2:$P$2</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$K$10:$P$10</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decode 8 lsq x2'!$J$12</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Decode 8 lsq x2'!$K$2:$P$2</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$K$12:$P$12</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1852300818"/>
+        <c:axId val="1008976311"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1852300818"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008976311"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1008976311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1852300818"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0" i="0" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" i="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>IPC Intel</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IPC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Decode 8 lsq x2'!$A$4:$A$14</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$B$4:$B$14</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="1523357679"/>
+        <c:axId val="793489640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1523357679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="793489640"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="793489640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1523357679"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" i="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>IPC AMD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IPC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Decode 8 lsq x2'!$A$3:$A$14</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$F$3:$F$14</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="610546383"/>
+        <c:axId val="725335544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="610546383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="725335544"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="725335544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="610546383"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" i="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Miss rates AMD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AMD LI1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Decode 8 lsq x2'!$J$4:$J$12</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$N$4:$N$12</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>AMD L1D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Decode 8 lsq x2'!$J$4:$J$12</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$O$4:$O$12</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AMD DL2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Decode 8 lsq x2'!$J$4:$J$12</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$P$4:$P$12</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="546962272"/>
+        <c:axId val="943737726"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="546962272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="943737726"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="943737726"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546962272"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0" i="0" sz="900">
               <a:solidFill>
                 <a:srgbClr val="1A1A1A"/>
               </a:solidFill>
@@ -13291,11 +14300,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="347226798"/>
-        <c:axId val="1104769392"/>
+        <c:axId val="1912840348"/>
+        <c:axId val="1234178688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="347226798"/>
+        <c:axId val="1912840348"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13347,10 +14356,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1104769392"/>
+        <c:crossAx val="1234178688"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1104769392"/>
+        <c:axId val="1234178688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13425,7 +14434,777 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347226798"/>
+        <c:crossAx val="1912840348"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" i="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Miss rates intel</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>INTEL LI1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Decode 8 lsq x2'!$J$4:$J$12</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$K$4:$K$12</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>INTEL L1D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Decode 8 lsq x2'!$J$4:$J$12</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$L$4:$L$12</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>INTEL DL2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Decode 8 lsq x2'!$J$4:$J$12</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$M$4:$M$12</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1785480512"/>
+        <c:axId val="789298998"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1785480512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="789298998"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="789298998"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1785480512"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0" i="0" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Intel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Decode 8 lsq x2'!$A$4:$A$14</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$B$4:$B$14</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Amd</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Decode 8 lsq x2'!$A$4:$A$14</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$F$4:$F$14</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1573546006"/>
+        <c:axId val="650502374"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1573546006"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650502374"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="650502374"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1573546006"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Intel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Original!$A$4:$A$14</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Original!$B$4:$B$14</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>AMD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Original!$A$4:$A$14</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Original!$F$4:$F$14</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Intel modif</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Original!$A$4:$A$14</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$B$4:$B$14</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>AMD modif</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Original!$A$4:$A$14</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decode 8 lsq x2'!$F$4:$F$14</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="916405625"/>
+        <c:axId val="486365267"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="916405625"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486365267"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="486365267"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="916405625"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -13542,11 +15321,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="660161086"/>
-        <c:axId val="94432923"/>
+        <c:axId val="2009886257"/>
+        <c:axId val="703354634"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="660161086"/>
+        <c:axId val="2009886257"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13598,10 +15377,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94432923"/>
+        <c:crossAx val="703354634"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94432923"/>
+        <c:axId val="703354634"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13665,7 +15444,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660161086"/>
+        <c:crossAx val="2009886257"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -13886,11 +15665,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="206498250"/>
-        <c:axId val="970201973"/>
+        <c:axId val="411342625"/>
+        <c:axId val="908254477"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206498250"/>
+        <c:axId val="411342625"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13942,10 +15721,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="970201973"/>
+        <c:crossAx val="908254477"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="970201973"/>
+        <c:axId val="908254477"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14009,7 +15788,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206498250"/>
+        <c:crossAx val="411342625"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -14100,11 +15879,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1730066745"/>
-        <c:axId val="1580098802"/>
+        <c:axId val="484991879"/>
+        <c:axId val="180432540"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1730066745"/>
+        <c:axId val="484991879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14156,10 +15935,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1580098802"/>
+        <c:crossAx val="180432540"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1580098802"/>
+        <c:axId val="180432540"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14223,7 +16002,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1730066745"/>
+        <c:crossAx val="484991879"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -15646,6 +17425,186 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4286250" cy="3019425"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="969017974" name="Chart 56" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4286250" cy="3048000"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1301529976" name="Chart 57"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4314825" cy="3048000"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1814835985" name="Chart 58"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4314825" cy="3019425"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="338053877" name="Chart 59"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4286250" cy="3019425"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1690664158" name="Chart 60"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4572000" cy="2819400"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="524127144" name="Chart 61" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4686300" cy="2895600"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1343292918" name="Chart 62" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -15959,14 +17918,14 @@
       <c r="F4" s="5">
         <v>0.793</v>
       </c>
-      <c r="G4" s="5">
-        <v>2.40109452842E11</v>
+      <c r="G4" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="H4" s="12">
         <v>3341116.0</v>
       </c>
-      <c r="I4" s="5">
-        <v>240240.0</v>
+      <c r="I4" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>9</v>
@@ -16017,7 +17976,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5">
         <v>1.434</v>
@@ -16031,7 +17990,7 @@
       <c r="E6" s="12">
         <v>419.0</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="14">
         <v>1.439</v>
       </c>
       <c r="G6" s="12">
@@ -16044,7 +18003,7 @@
         <v>420.0</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" ref="K6:M6" si="2">C6/C7</f>
@@ -16096,7 +18055,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5">
         <v>1.991</v>
@@ -16123,7 +18082,7 @@
         <v>203.0</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" ref="K8:M8" si="4">C8/C9</f>
@@ -16175,7 +18134,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5">
         <v>1.699</v>
@@ -16202,7 +18161,7 @@
         <v>1619.0</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" ref="K10:M10" si="6">C10/C11</f>
@@ -16254,7 +18213,7 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5">
         <v>1.974</v>
@@ -16281,7 +18240,7 @@
         <v>165.0</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ref="K12:M12" si="8">C12/C13</f>
@@ -16332,10 +18291,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="15">
+      <c r="A14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="16">
         <f>AVERAGE(B4:B13)</f>
         <v>1.5796</v>
       </c>
@@ -17445,7 +19404,7 @@
         <v>6</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>5</v>
@@ -17461,7 +19420,7 @@
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <v>0.8962</v>
       </c>
       <c r="C4" s="17">
@@ -17512,8 +19471,8 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="S4" s="14" t="s">
-        <v>16</v>
+      <c r="S4" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -17534,15 +19493,15 @@
         <v>2.6812315E7</v>
       </c>
       <c r="I5" s="8"/>
-      <c r="S5" s="14" t="s">
-        <v>17</v>
+      <c r="S5" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="16">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13">
         <v>1.9403</v>
       </c>
       <c r="C6" s="17">
@@ -17554,7 +19513,7 @@
       <c r="E6" s="17">
         <v>420.0</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="13">
         <v>1.9528</v>
       </c>
       <c r="G6" s="17">
@@ -17567,7 +19526,7 @@
         <v>421.0</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" ref="K6:M6" si="2">C6/C7</f>
@@ -17619,9 +19578,9 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="16">
+        <v>13</v>
+      </c>
+      <c r="B8" s="13">
         <v>2.6524</v>
       </c>
       <c r="C8" s="12">
@@ -17633,7 +19592,7 @@
       <c r="E8" s="12">
         <v>206.0</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="13">
         <v>2.5996</v>
       </c>
       <c r="G8" s="12">
@@ -17646,7 +19605,7 @@
         <v>203.0</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" ref="K8:M8" si="4">C8/C9</f>
@@ -17698,9 +19657,9 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="16">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13">
         <v>2.4272</v>
       </c>
       <c r="C10" s="17">
@@ -17712,7 +19671,7 @@
       <c r="E10" s="17">
         <v>1623.0</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="13">
         <v>2.382</v>
       </c>
       <c r="G10" s="17">
@@ -17725,7 +19684,7 @@
         <v>1621.0</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" ref="K10:M10" si="6">C10/C11</f>
@@ -17777,9 +19736,9 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="16">
+        <v>15</v>
+      </c>
+      <c r="B12" s="13">
         <v>2.6249</v>
       </c>
       <c r="C12" s="12">
@@ -17791,7 +19750,7 @@
       <c r="E12" s="12">
         <v>163.0</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="13">
         <v>2.5562</v>
       </c>
       <c r="G12" s="12">
@@ -17804,7 +19763,7 @@
         <v>165.0</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ref="K12:M12" si="8">C12/C13</f>
@@ -17855,8 +19814,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>18</v>
+      <c r="A14" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="B14" s="6">
         <f>AVERAGE(B4:B13)</f>
@@ -19057,7 +21016,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5">
         <v>1.434</v>
@@ -19084,7 +21043,7 @@
         <v>420.0</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" ref="K6:M6" si="2">C6/C7</f>
@@ -19136,7 +21095,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5">
         <v>1.991</v>
@@ -19163,7 +21122,7 @@
         <v>203.0</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" ref="K8:M8" si="4">C8/C9</f>
@@ -19215,7 +21174,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5">
         <v>1.699</v>
@@ -19242,7 +21201,7 @@
         <v>1619.0</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" ref="K10:M10" si="6">C10/C11</f>
@@ -19294,7 +21253,7 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5">
         <v>1.974</v>
@@ -19321,7 +21280,7 @@
         <v>165.0</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ref="K12:M12" si="8">C12/C13</f>
@@ -19372,8 +21331,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>18</v>
+      <c r="A14" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="B14" s="6">
         <f>AVERAGE(B4:B13)</f>
@@ -20574,7 +22533,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5">
         <v>1.434</v>
@@ -20588,7 +22547,7 @@
       <c r="E6" s="12">
         <v>419.0</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="14">
         <v>1.439</v>
       </c>
       <c r="G6" s="12">
@@ -20601,7 +22560,7 @@
         <v>420.0</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" ref="K6:M6" si="2">C6/C7</f>
@@ -20653,7 +22612,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5">
         <v>1.991</v>
@@ -20680,7 +22639,7 @@
         <v>203.0</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" ref="K8:M8" si="4">C8/C9</f>
@@ -20732,7 +22691,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5">
         <v>1.699</v>
@@ -20759,7 +22718,7 @@
         <v>1619.0</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" ref="K10:M10" si="6">C10/C11</f>
@@ -20811,7 +22770,7 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5">
         <v>1.974</v>
@@ -20838,7 +22797,7 @@
         <v>165.0</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ref="K12:M12" si="8">C12/C13</f>
@@ -20889,10 +22848,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="15">
+      <c r="A14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="16">
         <f>AVERAGE(B4:B13)</f>
         <v>1.5796</v>
       </c>
@@ -22030,7 +23989,7 @@
       <c r="E4" s="12">
         <v>240.0</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="13">
         <v>0.8022</v>
       </c>
       <c r="G4" s="5">
@@ -22091,9 +24050,9 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="16">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13">
         <v>1.4365</v>
       </c>
       <c r="C6" s="17">
@@ -22118,7 +24077,7 @@
         <v>419.0</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" ref="K6:M6" si="2">C6/C7</f>
@@ -22170,9 +24129,9 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="16">
+        <v>13</v>
+      </c>
+      <c r="B8" s="13">
         <v>1.9958</v>
       </c>
       <c r="C8" s="17">
@@ -22184,7 +24143,7 @@
       <c r="E8" s="17">
         <v>208.0</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="13">
         <v>2.0311</v>
       </c>
       <c r="G8" s="17">
@@ -22197,7 +24156,7 @@
         <v>208.0</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" ref="K8:M8" si="4">C8/C9</f>
@@ -22249,9 +24208,9 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="16">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13">
         <v>1.7022</v>
       </c>
       <c r="C10" s="17">
@@ -22263,7 +24222,7 @@
       <c r="E10" s="17">
         <v>1624.0</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="13">
         <v>1.7163</v>
       </c>
       <c r="G10" s="17">
@@ -22276,7 +24235,7 @@
         <v>1624.0</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" ref="K10:M10" si="6">C10/C11</f>
@@ -22328,9 +24287,9 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="16">
+        <v>15</v>
+      </c>
+      <c r="B12" s="13">
         <v>1.9779</v>
       </c>
       <c r="C12" s="12">
@@ -22342,7 +24301,7 @@
       <c r="E12" s="12">
         <v>163.0</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="13">
         <v>2.019</v>
       </c>
       <c r="G12" s="17">
@@ -22355,7 +24314,7 @@
         <v>163.0</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ref="K12:M12" si="8">C12/C13</f>
@@ -22406,10 +24365,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="15">
+      <c r="A14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="16">
         <f>AVERAGE(B4:B13)</f>
         <v>1.58274</v>
       </c>
@@ -23547,7 +25506,7 @@
       <c r="E4" s="12">
         <v>240.0</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="13">
         <v>0.8022</v>
       </c>
       <c r="G4" s="5">
@@ -23608,9 +25567,9 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="16">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13">
         <v>1.4365</v>
       </c>
       <c r="C6" s="17">
@@ -23635,7 +25594,7 @@
         <v>419.0</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" ref="K6:M6" si="2">C6/C7</f>
@@ -23687,9 +25646,9 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="16">
+        <v>13</v>
+      </c>
+      <c r="B8" s="13">
         <v>1.9958</v>
       </c>
       <c r="C8" s="17">
@@ -23701,7 +25660,7 @@
       <c r="E8" s="17">
         <v>208.0</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="13">
         <v>2.0311</v>
       </c>
       <c r="G8" s="17">
@@ -23714,7 +25673,7 @@
         <v>208.0</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" ref="K8:M8" si="4">C8/C9</f>
@@ -23766,9 +25725,9 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="16">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13">
         <v>1.7022</v>
       </c>
       <c r="C10" s="17">
@@ -23780,7 +25739,7 @@
       <c r="E10" s="17">
         <v>1624.0</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="13">
         <v>1.7163</v>
       </c>
       <c r="G10" s="17">
@@ -23793,7 +25752,7 @@
         <v>1624.0</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" ref="K10:M10" si="6">C10/C11</f>
@@ -23845,9 +25804,9 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="16">
+        <v>15</v>
+      </c>
+      <c r="B12" s="13">
         <v>1.9779</v>
       </c>
       <c r="C12" s="12">
@@ -23859,7 +25818,7 @@
       <c r="E12" s="12">
         <v>163.0</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="13">
         <v>2.019</v>
       </c>
       <c r="G12" s="17">
@@ -23872,7 +25831,7 @@
         <v>163.0</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ref="K12:M12" si="8">C12/C13</f>
@@ -23923,10 +25882,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="15">
+      <c r="A14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="16">
         <f>AVERAGE(B4:B13)</f>
         <v>1.58274</v>
       </c>
@@ -25064,7 +27023,7 @@
       <c r="E4" s="12">
         <v>240.0</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="13">
         <v>0.7305</v>
       </c>
       <c r="G4" s="5">
@@ -25125,9 +27084,9 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="16">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13">
         <v>1.0644</v>
       </c>
       <c r="C6" s="17">
@@ -25152,7 +27111,7 @@
         <v>421.0</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" ref="K6:M6" si="2">C6/C7</f>
@@ -25204,9 +27163,9 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="16">
+        <v>13</v>
+      </c>
+      <c r="B8" s="13">
         <v>1.3152</v>
       </c>
       <c r="C8" s="17">
@@ -25218,7 +27177,7 @@
       <c r="E8" s="17">
         <v>207.0</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="13">
         <v>1.2984</v>
       </c>
       <c r="G8" s="17">
@@ -25231,7 +27190,7 @@
         <v>205.0</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" ref="K8:M8" si="4">C8/C9</f>
@@ -25283,9 +27242,9 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="16">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13">
         <v>1.1716</v>
       </c>
       <c r="C10" s="17">
@@ -25297,7 +27256,7 @@
       <c r="E10" s="17">
         <v>1626.0</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="13">
         <v>1.168</v>
       </c>
       <c r="G10" s="17">
@@ -25310,7 +27269,7 @@
         <v>1622.0</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" ref="K10:M10" si="6">C10/C11</f>
@@ -25362,9 +27321,9 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="16">
+        <v>15</v>
+      </c>
+      <c r="B12" s="13">
         <v>1.2927</v>
       </c>
       <c r="C12" s="12">
@@ -25376,7 +27335,7 @@
       <c r="E12" s="12">
         <v>163.0</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="13">
         <v>1.2802</v>
       </c>
       <c r="G12" s="17">
@@ -25389,7 +27348,7 @@
         <v>165.0</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ref="K12:M12" si="8">C12/C13</f>
@@ -25440,16 +27399,3050 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="15">
+      <c r="A14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="16">
         <f>AVERAGE(B4:B13)</f>
         <v>1.1166</v>
       </c>
       <c r="F14" s="6">
         <f>AVERAGE(F4:F13)</f>
         <v>1.10766</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="10.71"/>
+    <col customWidth="1" min="7" max="7" width="11.43"/>
+    <col customWidth="1" min="8" max="10" width="10.71"/>
+    <col customWidth="1" min="11" max="11" width="12.0"/>
+    <col customWidth="1" min="12" max="13" width="10.71"/>
+    <col customWidth="1" min="14" max="14" width="12.0"/>
+    <col customWidth="1" min="15" max="26" width="10.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="K2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0.8368</v>
+      </c>
+      <c r="C4" s="17">
+        <v>244.0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>3341277.0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>244.0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.8232</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2.40109452842E11</v>
+      </c>
+      <c r="H4" s="17">
+        <v>3341277.0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>240240.0</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" ref="K4:M4" si="1">C4/C5</f>
+        <v>0.000002054445275</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="1"/>
+        <v>0.1268613682</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
+        <f>242/113156368</f>
+        <v>0.000002138633506</v>
+      </c>
+      <c r="O4" s="6">
+        <f>H4/30540615</f>
+        <v>0.1094043784</v>
+      </c>
+      <c r="P4" s="6">
+        <f>240/240</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="19">
+        <v>1.18766853E8</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2.6338018E7</v>
+      </c>
+      <c r="E5" s="19">
+        <v>244.0</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="19">
+        <v>2.6354003E7</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1.4637</v>
+      </c>
+      <c r="C6" s="17">
+        <v>21249.0</v>
+      </c>
+      <c r="D6" s="17">
+        <v>39832.0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>421.0</v>
+      </c>
+      <c r="F6" s="23">
+        <v>1.4671</v>
+      </c>
+      <c r="G6" s="17">
+        <v>21251.0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>39861.0</v>
+      </c>
+      <c r="I6" s="17">
+        <v>421.0</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" ref="K6:M6" si="2">C6/C7</f>
+        <v>0.0001814287363</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.000868043335</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.01981269707</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" ref="N6:P6" si="3">G6/G7</f>
+        <v>0.0001916897985</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0008693861062</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.01981083243</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="19">
+        <v>1.17120366E8</v>
+      </c>
+      <c r="D7" s="19">
+        <v>4.588711E7</v>
+      </c>
+      <c r="E7" s="19">
+        <v>21249.0</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="19">
+        <v>1.10861403E8</v>
+      </c>
+      <c r="H7" s="19">
+        <v>4.5849594E7</v>
+      </c>
+      <c r="I7" s="19">
+        <v>21251.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1.593</v>
+      </c>
+      <c r="C8" s="17">
+        <v>207.0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>7241.0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>207.0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1.584</v>
+      </c>
+      <c r="G8" s="17">
+        <v>205.0</v>
+      </c>
+      <c r="H8" s="17">
+        <v>7241.0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>205.0</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" ref="K8:M8" si="4">C8/C9</f>
+        <v>0.00000176235816</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="4"/>
+        <v>0.0002017041367</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" ref="N8:P8" si="5">G8/G9</f>
+        <v>0.000001825013406</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.0002020103672</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="19">
+        <v>1.17456261E8</v>
+      </c>
+      <c r="D9" s="19">
+        <v>3.5899115E7</v>
+      </c>
+      <c r="E9" s="19">
+        <v>207.0</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="19">
+        <v>1.12327942E8</v>
+      </c>
+      <c r="H9" s="19">
+        <v>3.5844695E7</v>
+      </c>
+      <c r="I9" s="19">
+        <v>205.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1.5721</v>
+      </c>
+      <c r="C10" s="17">
+        <v>5860.0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>597874.0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1629.0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1.5385</v>
+      </c>
+      <c r="G10" s="17">
+        <v>5855.0</v>
+      </c>
+      <c r="H10" s="17">
+        <v>597907.0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1627.0</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" ref="K10:M10" si="6">C10/C11</f>
+        <v>0.00005177125453</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="6"/>
+        <v>0.01481629804</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="6"/>
+        <v>0.2779863481</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" ref="N10:P10" si="7">G10/G11</f>
+        <v>0.00005341741493</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="7"/>
+        <v>0.01485303776</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="7"/>
+        <v>0.277882152</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="19">
+        <v>1.13190226E8</v>
+      </c>
+      <c r="D11" s="19">
+        <v>4.0352455E7</v>
+      </c>
+      <c r="E11" s="19">
+        <v>5860.0</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="19">
+        <v>1.09608449E8</v>
+      </c>
+      <c r="H11" s="19">
+        <v>4.0254863E7</v>
+      </c>
+      <c r="I11" s="19">
+        <v>5855.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1.5443</v>
+      </c>
+      <c r="C12" s="17">
+        <v>166.0</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2050.0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>166.0</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1.54</v>
+      </c>
+      <c r="G12" s="17">
+        <v>168.0</v>
+      </c>
+      <c r="H12" s="17">
+        <v>2047.0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>165.0</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" ref="K12:M12" si="8">C12/C13</f>
+        <v>0.000001396928168</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="8"/>
+        <v>0.00005771188588</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" ref="N12:P12" si="9">G12/G13</f>
+        <v>0.000001489903866</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="9"/>
+        <v>0.00005767495276</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="19">
+        <v>1.18832166E8</v>
+      </c>
+      <c r="D13" s="19">
+        <v>3.5521279E7</v>
+      </c>
+      <c r="E13" s="19">
+        <v>166.0</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="19">
+        <v>1.12758953E8</v>
+      </c>
+      <c r="H13" s="19">
+        <v>3.549201E7</v>
+      </c>
+      <c r="I13" s="19">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="16">
+        <f>AVERAGE(B4:B13)</f>
+        <v>1.40198</v>
+      </c>
+      <c r="F14" s="6">
+        <f>AVERAGE(F4:F13)</f>
+        <v>1.39056</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="10.71"/>
+    <col customWidth="1" min="7" max="7" width="11.43"/>
+    <col customWidth="1" min="8" max="10" width="10.71"/>
+    <col customWidth="1" min="11" max="11" width="12.0"/>
+    <col customWidth="1" min="12" max="13" width="10.71"/>
+    <col customWidth="1" min="14" max="14" width="12.0"/>
+    <col customWidth="1" min="15" max="26" width="10.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="K2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0.8909</v>
+      </c>
+      <c r="C4" s="17">
+        <v>244.0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>3341215.0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>244.0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.8832</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2.40109452842E11</v>
+      </c>
+      <c r="H4" s="17">
+        <v>3341216.0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>240240.0</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" ref="K4:M4" si="1">C4/C5</f>
+        <v>0.000001939105522</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="1"/>
+        <v>0.1258444946</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
+        <f>241/111573562</f>
+        <v>0.000002160009913</v>
+      </c>
+      <c r="O4" s="6">
+        <f>H4/26814433</f>
+        <v>0.1246051334</v>
+      </c>
+      <c r="P4" s="6">
+        <f>241/241</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="19">
+        <v>1.25831213E8</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2.6550347E7</v>
+      </c>
+      <c r="E5" s="19">
+        <v>244.0</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="19">
+        <v>2.6353993E7</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1.9457</v>
+      </c>
+      <c r="C6" s="17">
+        <v>22270.0</v>
+      </c>
+      <c r="D6" s="17">
+        <v>39832.0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>420.0</v>
+      </c>
+      <c r="F6" s="23">
+        <v>1.9528</v>
+      </c>
+      <c r="G6" s="17">
+        <v>22240.0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>39835.0</v>
+      </c>
+      <c r="I6" s="17">
+        <v>420.0</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" ref="K6:M6" si="2">C6/C7</f>
+        <v>0.0001851763805</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.0008640902076</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.01885945218</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" ref="N6:P6" si="3">G6/G7</f>
+        <v>0.0001994645596</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0008664746378</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.01888489209</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="19">
+        <v>1.20263718E8</v>
+      </c>
+      <c r="D7" s="19">
+        <v>4.6097039E7</v>
+      </c>
+      <c r="E7" s="19">
+        <v>22270.0</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="19">
+        <v>1.11498504E8</v>
+      </c>
+      <c r="H7" s="19">
+        <v>4.5973648E7</v>
+      </c>
+      <c r="I7" s="19">
+        <v>22240.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2.6607</v>
+      </c>
+      <c r="C8" s="17">
+        <v>207.0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>7241.0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>207.0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2.5996</v>
+      </c>
+      <c r="G8" s="17">
+        <v>203.0</v>
+      </c>
+      <c r="H8" s="17">
+        <v>7241.0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>203.0</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" ref="K8:M8" si="4">C8/C9</f>
+        <v>0.000001765757615</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="4"/>
+        <v>0.0001999776299</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" ref="N8:P8" si="5">G8/G9</f>
+        <v>0.000001846528134</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.0001999987295</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="19">
+        <v>1.17230133E8</v>
+      </c>
+      <c r="D9" s="19">
+        <v>3.620905E7</v>
+      </c>
+      <c r="E9" s="19">
+        <v>207.0</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="19">
+        <v>1.09936045E8</v>
+      </c>
+      <c r="H9" s="19">
+        <v>3.620523E7</v>
+      </c>
+      <c r="I9" s="19">
+        <v>203.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2.4042</v>
+      </c>
+      <c r="C10" s="17">
+        <v>5672.0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>597814.0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1623.0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>2.382</v>
+      </c>
+      <c r="G10" s="17">
+        <v>5570.0</v>
+      </c>
+      <c r="H10" s="17">
+        <v>597768.0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1621.0</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" ref="K10:M10" si="6">C10/C11</f>
+        <v>0.0000496343592</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="6"/>
+        <v>0.01468980324</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="6"/>
+        <v>0.2861424542</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" ref="N10:P10" si="7">G10/G11</f>
+        <v>0.00005133294138</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="7"/>
+        <v>0.01473280124</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="7"/>
+        <v>0.2910233393</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="19">
+        <v>1.14275677E8</v>
+      </c>
+      <c r="D11" s="19">
+        <v>4.0695848E7</v>
+      </c>
+      <c r="E11" s="19">
+        <v>5672.0</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="19">
+        <v>1.08507322E8</v>
+      </c>
+      <c r="H11" s="19">
+        <v>4.0573954E7</v>
+      </c>
+      <c r="I11" s="19">
+        <v>5570.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1.54</v>
+      </c>
+      <c r="C12" s="17">
+        <v>165.0</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2049.0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>165.0</v>
+      </c>
+      <c r="F12" s="22">
+        <v>2.5562</v>
+      </c>
+      <c r="G12" s="17">
+        <v>165.0</v>
+      </c>
+      <c r="H12" s="17">
+        <v>2047.0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>165.0</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" ref="K12:M12" si="8">C12/C13</f>
+        <v>0.000001399370599</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="8"/>
+        <v>0.00005702415403</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" ref="N12:P12" si="9">G12/G13</f>
+        <v>0.000001493351004</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="9"/>
+        <v>0.00005675474326</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="19">
+        <v>1.17910152E8</v>
+      </c>
+      <c r="D13" s="19">
+        <v>3.5932142E7</v>
+      </c>
+      <c r="E13" s="19">
+        <v>165.0</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="19">
+        <v>1.10489764E8</v>
+      </c>
+      <c r="H13" s="19">
+        <v>3.606747E7</v>
+      </c>
+      <c r="I13" s="19">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="16">
+        <f>AVERAGE(B4:B13)</f>
+        <v>1.8883</v>
+      </c>
+      <c r="F14" s="6">
+        <f>AVERAGE(F4:F13)</f>
+        <v>2.07476</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -26463,1521 +31456,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="6" width="10.71"/>
-    <col customWidth="1" min="7" max="7" width="11.43"/>
-    <col customWidth="1" min="8" max="10" width="10.71"/>
-    <col customWidth="1" min="11" max="11" width="12.0"/>
-    <col customWidth="1" min="12" max="13" width="10.71"/>
-    <col customWidth="1" min="14" max="14" width="12.0"/>
-    <col customWidth="1" min="15" max="26" width="10.71"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="K2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="22">
-        <v>0.8368</v>
-      </c>
-      <c r="C4" s="17">
-        <v>244.0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>3341277.0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>244.0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0.8232</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2.40109452842E11</v>
-      </c>
-      <c r="H4" s="17">
-        <v>3341277.0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>240240.0</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="6">
-        <f t="shared" ref="K4:M4" si="1">C4/C5</f>
-        <v>0.000002054445275</v>
-      </c>
-      <c r="L4" s="6">
-        <f t="shared" si="1"/>
-        <v>0.1268613682</v>
-      </c>
-      <c r="M4" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
-        <f>242/113156368</f>
-        <v>0.000002138633506</v>
-      </c>
-      <c r="O4" s="6">
-        <f>H4/30540615</f>
-        <v>0.1094043784</v>
-      </c>
-      <c r="P4" s="6">
-        <f>240/240</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="19">
-        <v>1.18766853E8</v>
-      </c>
-      <c r="D5" s="19">
-        <v>2.6338018E7</v>
-      </c>
-      <c r="E5" s="19">
-        <v>244.0</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="19">
-        <v>2.6354003E7</v>
-      </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="16">
-        <v>1.4637</v>
-      </c>
-      <c r="C6" s="17">
-        <v>21249.0</v>
-      </c>
-      <c r="D6" s="17">
-        <v>39832.0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>421.0</v>
-      </c>
-      <c r="F6" s="23">
-        <v>1.4671</v>
-      </c>
-      <c r="G6" s="17">
-        <v>21251.0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>39861.0</v>
-      </c>
-      <c r="I6" s="17">
-        <v>421.0</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" ref="K6:M6" si="2">C6/C7</f>
-        <v>0.0001814287363</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" si="2"/>
-        <v>0.000868043335</v>
-      </c>
-      <c r="M6" s="6">
-        <f t="shared" si="2"/>
-        <v>0.01981269707</v>
-      </c>
-      <c r="N6" s="6">
-        <f t="shared" ref="N6:P6" si="3">G6/G7</f>
-        <v>0.0001916897985</v>
-      </c>
-      <c r="O6" s="6">
-        <f t="shared" si="3"/>
-        <v>0.0008693861062</v>
-      </c>
-      <c r="P6" s="6">
-        <f t="shared" si="3"/>
-        <v>0.01981083243</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="19">
-        <v>1.17120366E8</v>
-      </c>
-      <c r="D7" s="19">
-        <v>4.588711E7</v>
-      </c>
-      <c r="E7" s="19">
-        <v>21249.0</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="19">
-        <v>1.10861403E8</v>
-      </c>
-      <c r="H7" s="19">
-        <v>4.5849594E7</v>
-      </c>
-      <c r="I7" s="19">
-        <v>21251.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="16">
-        <v>1.593</v>
-      </c>
-      <c r="C8" s="17">
-        <v>207.0</v>
-      </c>
-      <c r="D8" s="17">
-        <v>7241.0</v>
-      </c>
-      <c r="E8" s="17">
-        <v>207.0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>1.584</v>
-      </c>
-      <c r="G8" s="17">
-        <v>205.0</v>
-      </c>
-      <c r="H8" s="17">
-        <v>7241.0</v>
-      </c>
-      <c r="I8" s="17">
-        <v>205.0</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" ref="K8:M8" si="4">C8/C9</f>
-        <v>0.00000176235816</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="4"/>
-        <v>0.0002017041367</v>
-      </c>
-      <c r="M8" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N8" s="6">
-        <f t="shared" ref="N8:P8" si="5">G8/G9</f>
-        <v>0.000001825013406</v>
-      </c>
-      <c r="O8" s="6">
-        <f t="shared" si="5"/>
-        <v>0.0002020103672</v>
-      </c>
-      <c r="P8" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="19">
-        <v>1.17456261E8</v>
-      </c>
-      <c r="D9" s="19">
-        <v>3.5899115E7</v>
-      </c>
-      <c r="E9" s="19">
-        <v>207.0</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="19">
-        <v>1.12327942E8</v>
-      </c>
-      <c r="H9" s="19">
-        <v>3.5844695E7</v>
-      </c>
-      <c r="I9" s="19">
-        <v>205.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="16">
-        <v>1.5721</v>
-      </c>
-      <c r="C10" s="17">
-        <v>5860.0</v>
-      </c>
-      <c r="D10" s="17">
-        <v>597874.0</v>
-      </c>
-      <c r="E10" s="17">
-        <v>1629.0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1.5385</v>
-      </c>
-      <c r="G10" s="17">
-        <v>5855.0</v>
-      </c>
-      <c r="H10" s="17">
-        <v>597907.0</v>
-      </c>
-      <c r="I10" s="17">
-        <v>1627.0</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" ref="K10:M10" si="6">C10/C11</f>
-        <v>0.00005177125453</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="6"/>
-        <v>0.01481629804</v>
-      </c>
-      <c r="M10" s="6">
-        <f t="shared" si="6"/>
-        <v>0.2779863481</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" ref="N10:P10" si="7">G10/G11</f>
-        <v>0.00005341741493</v>
-      </c>
-      <c r="O10" s="6">
-        <f t="shared" si="7"/>
-        <v>0.01485303776</v>
-      </c>
-      <c r="P10" s="6">
-        <f t="shared" si="7"/>
-        <v>0.277882152</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="19">
-        <v>1.13190226E8</v>
-      </c>
-      <c r="D11" s="19">
-        <v>4.0352455E7</v>
-      </c>
-      <c r="E11" s="19">
-        <v>5860.0</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="19">
-        <v>1.09608449E8</v>
-      </c>
-      <c r="H11" s="19">
-        <v>4.0254863E7</v>
-      </c>
-      <c r="I11" s="19">
-        <v>5855.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="16">
-        <v>1.5443</v>
-      </c>
-      <c r="C12" s="17">
-        <v>166.0</v>
-      </c>
-      <c r="D12" s="17">
-        <v>2050.0</v>
-      </c>
-      <c r="E12" s="17">
-        <v>166.0</v>
-      </c>
-      <c r="F12" s="22">
-        <v>1.54</v>
-      </c>
-      <c r="G12" s="17">
-        <v>168.0</v>
-      </c>
-      <c r="H12" s="17">
-        <v>2047.0</v>
-      </c>
-      <c r="I12" s="17">
-        <v>165.0</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" ref="K12:M12" si="8">C12/C13</f>
-        <v>0.000001396928168</v>
-      </c>
-      <c r="L12" s="6">
-        <f t="shared" si="8"/>
-        <v>0.00005771188588</v>
-      </c>
-      <c r="M12" s="6">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="6">
-        <f t="shared" ref="N12:P12" si="9">G12/G13</f>
-        <v>0.000001489903866</v>
-      </c>
-      <c r="O12" s="6">
-        <f t="shared" si="9"/>
-        <v>0.00005767495276</v>
-      </c>
-      <c r="P12" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="19">
-        <v>1.18832166E8</v>
-      </c>
-      <c r="D13" s="19">
-        <v>3.5521279E7</v>
-      </c>
-      <c r="E13" s="19">
-        <v>166.0</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="19">
-        <v>1.12758953E8</v>
-      </c>
-      <c r="H13" s="19">
-        <v>3.549201E7</v>
-      </c>
-      <c r="I13" s="19">
-        <v>165.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="15">
-        <f>AVERAGE(B4:B13)</f>
-        <v>1.40198</v>
-      </c>
-      <c r="F14" s="6">
-        <f>AVERAGE(F4:F13)</f>
-        <v>1.39056</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F6:F7"/>
-  </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>